--- a/biology/Médecine/1533_en_santé_et_médecine/1533_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1533_en_santé_et_médecine/1533_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1533_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1533_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1533 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1533_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1533_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1531-1533 : les consuls de Lyon fondent une « aumône générale, origine de l'hôpital de la Charité[1],[2] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1531-1533 : les consuls de Lyon fondent une « aumône générale, origine de l'hôpital de la Charité, ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1533_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1533_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Lyon, les orphelins sont placés à l'hôpital de la Chana et les orphelines, à l'hôpital Saint-Catherine du Val, au couvent des Cordeliers et à celui des Jacobins[3].
-Printemps-été : épidémie à Montpellier[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Lyon, les orphelins sont placés à l'hôpital de la Chana et les orphelines, à l'hôpital Saint-Catherine du Val, au couvent des Cordeliers et à celui des Jacobins.
+Printemps-été : épidémie à Montpellier :
 7 mai-fin juillet : la vie universitaire est suspendue ;
 11 août : la plupart des fugitifs rentrent dans leur foyer.
-1529-1533 : Nostradamus est inscrit à l'université de Montpellier, où il prépare et obtient le grade de docteur en médecine[5].</t>
+1529-1533 : Nostradamus est inscrit à l'université de Montpellier, où il prépare et obtient le grade de docteur en médecine.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1533_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1533_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Paracelse (1493-1541), alchimiste, astrologue et médecin suisse, publie son traité sur « le mal des montagnes et autres maladies des mineurs » où il décrit les pathologies liées à l’extraction des minerais et au travail des métaux, et où il donne des conseils de prévention et de traitement[6].
-Thomas Paynell (fl. 1528-1567) traduit en anglais le De morbo gallico, d'Ulrich von Hutten (1488-1523[7]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paracelse (1493-1541), alchimiste, astrologue et médecin suisse, publie son traité sur « le mal des montagnes et autres maladies des mineurs » où il décrit les pathologies liées à l’extraction des minerais et au travail des métaux, et où il donne des conseils de prévention et de traitement.
+Thomas Paynell (fl. 1528-1567) traduit en anglais le De morbo gallico, d'Ulrich von Hutten (1488-1523).</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1533_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1533_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hieronymus Fabricius (mort en 1619), anatomiste italien, auteur, entre autres ouvrages, d'un traité De venarum ostiolis publié en 1603, l'une des publications qui conduiront William Harvey, son élève, à la découverte de la circulation sanguine en 1628[8],[9],[10].
-Theodor Zwinger l'Ancien (mort en 1588), savant et médecin suisse[11],[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hieronymus Fabricius (mort en 1619), anatomiste italien, auteur, entre autres ouvrages, d'un traité De venarum ostiolis publié en 1603, l'une des publications qui conduiront William Harvey, son élève, à la découverte de la circulation sanguine en 1628.
+Theodor Zwinger l'Ancien (mort en 1588), savant et médecin suisse,.
 </t>
         </is>
       </c>
